--- a/biology/Botanique/Maytenus_senegalensis/Maytenus_senegalensis.xlsx
+++ b/biology/Botanique/Maytenus_senegalensis/Maytenus_senegalensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Maytenus senegalensis est une espèce d'arbres ou arbustes de la famille des Celastraceae, répartie sur l’ensemble de l'Afrique.
 </t>
@@ -511,14 +523,16 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il peut atteindre une hauteur de 16 mètres[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il peut atteindre une hauteur de 16 mètres.
 Il est présent en Afrique du Nord, de la Somalie au Sénégal, en Afrique du Sud et à Madagascar, aux iles Canaries, ainsi que dans l’extrême sud de la péninsule Ibérique (avec la variété Maytenus senegalensis (Lam.) Exell var. europaea (Boiss.) Jahand. &amp; Maire), à une altitude variant du niveau de la mer à 2400 mètres.
 Le tronc est droit, l'arbre peut monter à 16 mètres, les branches sont souples, tombantes, rouges ou gris-vert, et l'écorce grise, dure, épaisse et rainurée verticalement.
 Il peut être épineux, les épines font alors de 1 à 5 cm.
 Ses feuilles ovales, souples et charnues font entre 3 et 12 cm de long avec une nervure centrale généralement rose. Elles sont soit groupées, soit alternes.
-Le pédoncule est court. Les fleurs, parfumées, sont blanc-crème et recouvrent densément l'arbre. Elles donnent des fruits verts puis rouges, ronds allant jusqu'à 6 mm de diamètre. Ces fruits donnent 1 graine d'un rouge brun brillant, la moitié sont couvertes d'un doux arille blanc. Les graines sont dispersées par ornithochorie[4].
+Le pédoncule est court. Les fleurs, parfumées, sont blanc-crème et recouvrent densément l'arbre. Elles donnent des fruits verts puis rouges, ronds allant jusqu'à 6 mm de diamètre. Ces fruits donnent 1 graine d'un rouge brun brillant, la moitié sont couvertes d'un doux arille blanc. Les graines sont dispersées par ornithochorie.
 </t>
         </is>
       </c>
@@ -547,9 +561,11 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Il est utilisé comme bois de chauffage, charbon, fourrage (feuilles), défense vivante ou sèche (branches épineuses), matériel de toiture pour les habitations locales[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Il est utilisé comme bois de chauffage, charbon, fourrage (feuilles), défense vivante ou sèche (branches épineuses), matériel de toiture pour les habitations locales.
 D’un point de vue médicamenteux :
 Ecorces écrasées + eau, voie orale : cancer.
 Ecorces tige, rameau, tronc, décoction : tachycardie.
@@ -635,7 +651,7 @@
 Tiges (petites) et feuilles pilées, bouillies. 1 cuillère à soupe, 2 X / J. Le liquide est aussi frotté sur le corps des enfants avec la cosse de maïs : rougeole, varicelle.
 Tiges et écorces de tiges de Maytenus senegalensis + Khaya senegalensis : oxyures.
 Tiges feuillées, décoction, bains, voie orale : stimulant dentition enfants.
-Tiges pressées, jus, application locale : amygdale[5].</t>
+Tiges pressées, jus, application locale : amygdale.</t>
         </is>
       </c>
     </row>
@@ -665,12 +681,52 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Nomenclature
-Le nom binomial de cette espèce ne fait pas consensus ; le statut des noms varie selon les sources. Les deux noms binomiaux qui coexistent sont : Gymnosporia senegalensis et Maytenus senegalensis.
-Liste des sous-espèces et variétés
-Selon Catalogue of Life                                   (2 mai 2017)[6] :
+          <t>Nomenclature</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom binomial de cette espèce ne fait pas consensus ; le statut des noms varie selon les sources. Les deux noms binomiaux qui coexistent sont : Gymnosporia senegalensis et Maytenus senegalensis.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Maytenus_senegalensis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Maytenus_senegalensis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces et variétés</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (2 mai 2017) :
 variété Gymnosporia senegalensis var. europaea
-Selon Tropicos                                           (2 mai 2017)[7] :
+Selon Tropicos                                           (2 mai 2017) :
 sous-espèce Gymnosporia senegalensis subsp. senegalensis
 variété Gymnosporia senegalensis var. angustifolia Engl. &amp; Loes.
 variété Gymnosporia senegalensis var. djalonensis Aubrév.
